--- a/src/n2s_estimator/data/n2s_estimator.xlsx
+++ b/src/n2s_estimator/data/n2s_estimator.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,19 +485,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Technical Lead</t>
+          <t>Integration Developer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Technical Architect</t>
+          <t>Integration Engineer</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Integration Developer</t>
+          <t>Integration Consultant</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -509,46 +509,34 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Integration Consultant</t>
+          <t>Extensibility Developer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Integration Engineer</t>
+          <t>Extensibility Engineer</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Extensibility Developer</t>
+          <t>DW Scribe</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Extensibility Engineer</t>
+          <t>DegreeWorks Scribe</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DW Scribe</t>
+          <t>Degree Works Scribe</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>DegreeWorks Scribe</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Degree Works Scribe</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
         <is>
           <t>DegreeWorks Scribe</t>
         </is>
@@ -1190,7 +1178,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Technical Lead</t>
+          <t>QA Engineer</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1216,7 +1204,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>QA Engineer</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1552,7 +1540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1617,7 +1605,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Technical Lead</t>
+          <t>Functional Consultant</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1633,7 +1621,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Functional Consultant</t>
+          <t>QA Engineer</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1649,7 +1637,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>QA Engineer</t>
+          <t>Integration Engineer</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1665,14 +1653,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Integration Engineer</t>
+          <t>Technical Architect</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1681,14 +1669,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Technical Architect</t>
+          <t>Integration Lead</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1697,14 +1685,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Integration Lead</t>
+          <t>Reporting Consultant</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1713,7 +1701,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Reporting Consultant</t>
+          <t>Extensibility Engineer</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1729,32 +1717,16 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Extensibility Engineer</t>
+          <t>DegreeWorks Scribe</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>DegreeWorks Scribe</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1769,7 +1741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1849,7 +1821,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Technical Lead</t>
+          <t>Functional Consultant</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1870,7 +1842,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Functional Consultant</t>
+          <t>QA Engineer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1891,7 +1863,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>QA Engineer</t>
+          <t>Integration Engineer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1912,7 +1884,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Integration Engineer</t>
+          <t>Technical Architect</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1933,7 +1905,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Technical Architect</t>
+          <t>Integration Lead</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1954,7 +1926,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Integration Lead</t>
+          <t>Reporting Consultant</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1975,7 +1947,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Reporting Consultant</t>
+          <t>Extensibility Engineer</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1996,7 +1968,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Extensibility Engineer</t>
+          <t>DegreeWorks Scribe</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2005,40 +1977,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="D11" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E11" t="n">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DegreeWorks Scribe</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D12" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Solution Architect</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2047,19 +2019,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="D13" t="n">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E13" t="n">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Solution Architect</t>
+          <t>Functional Consultant</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2068,19 +2040,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D14" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E14" t="n">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Technical Lead</t>
+          <t>QA Engineer</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2089,19 +2061,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D15" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E15" t="n">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Functional Consultant</t>
+          <t>Integration Engineer</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2110,19 +2082,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D16" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E16" t="n">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>QA Engineer</t>
+          <t>Technical Architect</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2131,19 +2103,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="D17" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E17" t="n">
-        <v>95</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Integration Engineer</t>
+          <t>Integration Lead</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2152,19 +2124,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D18" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E18" t="n">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Technical Architect</t>
+          <t>Reporting Consultant</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2173,19 +2145,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D19" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E19" t="n">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Integration Lead</t>
+          <t>Extensibility Engineer</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2194,7 +2166,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D20" t="n">
         <v>76</v>
@@ -2206,7 +2178,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Reporting Consultant</t>
+          <t>DegreeWorks Scribe</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2215,61 +2187,61 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D21" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E21" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Extensibility Engineer</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D22" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E22" t="n">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DegreeWorks Scribe</t>
+          <t>Solution Architect</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="D23" t="n">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="E23" t="n">
-        <v>110</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Functional Consultant</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2278,19 +2250,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D24" t="n">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E24" t="n">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Solution Architect</t>
+          <t>QA Engineer</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2299,19 +2271,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="D25" t="n">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E25" t="n">
-        <v>154</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Technical Lead</t>
+          <t>Integration Engineer</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2320,19 +2292,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="D26" t="n">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="E26" t="n">
-        <v>143</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Functional Consultant</t>
+          <t>Technical Architect</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2341,19 +2313,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="D27" t="n">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E27" t="n">
-        <v>121</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>QA Engineer</t>
+          <t>Integration Lead</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2362,19 +2334,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="D28" t="n">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="E28" t="n">
-        <v>110</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Integration Engineer</t>
+          <t>Reporting Consultant</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2383,19 +2355,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D29" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E29" t="n">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Technical Architect</t>
+          <t>Extensibility Engineer</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2404,19 +2376,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="D30" t="n">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E30" t="n">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Integration Lead</t>
+          <t>DegreeWorks Scribe</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2425,82 +2397,82 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="D31" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E31" t="n">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Reporting Consultant</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="D32" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E32" t="n">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Extensibility Engineer</t>
+          <t>Solution Architect</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D33" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E33" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DegreeWorks Scribe</t>
+          <t>Functional Consultant</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D34" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E34" t="n">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>QA Engineer</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2509,19 +2481,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D35" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E35" t="n">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Solution Architect</t>
+          <t>Integration Engineer</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2530,19 +2502,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="D36" t="n">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="E36" t="n">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Technical Lead</t>
+          <t>Technical Architect</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2551,19 +2523,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D37" t="n">
         <v>89</v>
       </c>
       <c r="E37" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Functional Consultant</t>
+          <t>Integration Lead</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2572,19 +2544,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="D38" t="n">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E38" t="n">
-        <v>115</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>QA Engineer</t>
+          <t>Reporting Consultant</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2593,19 +2565,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="D39" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E39" t="n">
-        <v>105</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Integration Engineer</t>
+          <t>Extensibility Engineer</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2614,19 +2586,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D40" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E40" t="n">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Technical Architect</t>
+          <t>DegreeWorks Scribe</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2635,103 +2607,103 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="D41" t="n">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E41" t="n">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Integration Lead</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>ANZ</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D42" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E42" t="n">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Reporting Consultant</t>
+          <t>Solution Architect</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>ANZ</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="D43" t="n">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="E43" t="n">
-        <v>131</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Extensibility Engineer</t>
+          <t>Functional Consultant</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>ANZ</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D44" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E44" t="n">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DegreeWorks Scribe</t>
+          <t>QA Engineer</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>ANZ</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D45" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E45" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Integration Engineer</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2740,19 +2712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="D46" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E46" t="n">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Solution Architect</t>
+          <t>Technical Architect</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2761,19 +2733,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D47" t="n">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E47" t="n">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Technical Lead</t>
+          <t>Integration Lead</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2782,19 +2754,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="D48" t="n">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E48" t="n">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Functional Consultant</t>
+          <t>Reporting Consultant</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2803,19 +2775,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="D49" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E49" t="n">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>QA Engineer</t>
+          <t>Extensibility Engineer</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2824,19 +2796,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="D50" t="n">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E50" t="n">
-        <v>114</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Integration Engineer</t>
+          <t>DegreeWorks Scribe</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2845,124 +2817,124 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="D51" t="n">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E51" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Technical Architect</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ANZ</t>
+          <t>MENA</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c r="D52" t="n">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="E52" t="n">
-        <v>166</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Integration Lead</t>
+          <t>Solution Architect</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ANZ</t>
+          <t>MENA</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="D53" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E53" t="n">
-        <v>143</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Reporting Consultant</t>
+          <t>Functional Consultant</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ANZ</t>
+          <t>MENA</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="D54" t="n">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E54" t="n">
-        <v>143</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Extensibility Engineer</t>
+          <t>QA Engineer</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ANZ</t>
+          <t>MENA</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="D55" t="n">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="E55" t="n">
-        <v>151</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DegreeWorks Scribe</t>
+          <t>Integration Engineer</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ANZ</t>
+          <t>MENA</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="D56" t="n">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="E56" t="n">
-        <v>133</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Technical Architect</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2971,19 +2943,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D57" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E57" t="n">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Solution Architect</t>
+          <t>Integration Lead</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2992,19 +2964,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D58" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E58" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Technical Lead</t>
+          <t>Reporting Consultant</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3013,19 +2985,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D59" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E59" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Functional Consultant</t>
+          <t>Extensibility Engineer</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3034,19 +3006,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D60" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E60" t="n">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>QA Engineer</t>
+          <t>DegreeWorks Scribe</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3055,138 +3027,12 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D61" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E61" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Integration Engineer</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>MENA</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>144</v>
-      </c>
-      <c r="D62" t="n">
-        <v>72</v>
-      </c>
-      <c r="E62" t="n">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Technical Architect</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>MENA</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>153</v>
-      </c>
-      <c r="D63" t="n">
-        <v>80</v>
-      </c>
-      <c r="E63" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Integration Lead</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>MENA</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>140</v>
-      </c>
-      <c r="D64" t="n">
-        <v>68</v>
-      </c>
-      <c r="E64" t="n">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Reporting Consultant</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>MENA</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>131</v>
-      </c>
-      <c r="D65" t="n">
-        <v>68</v>
-      </c>
-      <c r="E65" t="n">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Extensibility Engineer</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>MENA</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>140</v>
-      </c>
-      <c r="D66" t="n">
-        <v>69</v>
-      </c>
-      <c r="E66" t="n">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>DegreeWorks Scribe</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>MENA</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>123</v>
-      </c>
-      <c r="D67" t="n">
-        <v>61</v>
-      </c>
-      <c r="E67" t="n">
         <v>98</v>
       </c>
     </row>
@@ -3810,7 +3656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4147,7 +3993,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.08</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="23">
@@ -4188,11 +4034,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Technical Lead</t>
+          <t>Integration Lead</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.27</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -4308,11 +4154,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Technical Lead</t>
+          <t>Integration Engineer</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="34">
@@ -4323,26 +4169,26 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Integration Engineer</t>
+          <t>Extensibility Engineer</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Deploy</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Extensibility Engineer</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="36">
@@ -4353,11 +4199,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Solution Architect</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="37">
@@ -4368,11 +4214,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Solution Architect</t>
+          <t>Technical Architect</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="38">
@@ -4383,11 +4229,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Technical Architect</t>
+          <t>Functional Consultant</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
@@ -4398,11 +4244,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Functional Consultant</t>
+          <t>QA Engineer</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="40">
@@ -4413,11 +4259,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>QA Engineer</t>
+          <t>Integration Engineer</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="41">
@@ -4428,26 +4274,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Technical Lead</t>
+          <t>Extensibility Engineer</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Deploy</t>
+          <t>Go-Live</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Integration Engineer</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="43">
@@ -4458,11 +4304,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Solution Architect</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="44">
@@ -4473,11 +4319,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Solution Architect</t>
+          <t>Functional Consultant</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="45">
@@ -4488,26 +4334,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Functional Consultant</t>
+          <t>QA Engineer</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Go-Live</t>
+          <t>Post Go-Live (Care)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>QA Engineer</t>
+          <t>Project Manager</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="47">
@@ -4518,11 +4364,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Project Manager</t>
+          <t>Solution Architect</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="48">
@@ -4533,11 +4379,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Solution Architect</t>
+          <t>Functional Consultant</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="49">
@@ -4548,25 +4394,10 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Functional Consultant</t>
+          <t>QA Engineer</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Post Go-Live (Care)</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>QA Engineer</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4581,7 +4412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4646,7 +4477,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Technical Lead</t>
+          <t>Functional Consultant</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -4662,7 +4493,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Functional Consultant</t>
+          <t>QA Engineer</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -4678,7 +4509,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>QA Engineer</t>
+          <t>Integration Engineer</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4694,7 +4525,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Integration Engineer</t>
+          <t>Technical Architect</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4710,7 +4541,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Technical Architect</t>
+          <t>Integration Lead</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -4726,7 +4557,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Integration Lead</t>
+          <t>Reporting Consultant</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -4742,7 +4573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Reporting Consultant</t>
+          <t>Extensibility Engineer</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -4758,32 +4589,16 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Extensibility Engineer</t>
+          <t>DegreeWorks Scribe</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C11" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D11" t="n">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>DegreeWorks Scribe</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>145</v>
-      </c>
-      <c r="C12" t="n">
-        <v>72</v>
-      </c>
-      <c r="D12" t="n">
         <v>116</v>
       </c>
     </row>

--- a/src/n2s_estimator/data/n2s_estimator.xlsx
+++ b/src/n2s_estimator/data/n2s_estimator.xlsx
@@ -20,7 +20,9 @@
     <sheet name="Product Role Map" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Rates (Locales)" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Assumptions &amp; Inputs" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Sources" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Product Multipliers" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Product Package Multipliers" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Sources" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3090,6 +3092,263 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Delivery Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Multiplier</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Banner</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Net New</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Banner</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Modernization</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Colleague</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Net New</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Colleague</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Modernization</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Package</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Multiplier</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Banner</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Integrations</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Banner integrations typically complex enterprise patterns</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Banner</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Reports</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Banner reporting often includes complex data warehouse integration</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Banner</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Degree Works</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Degree Works is Banner-only ecosystem</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Colleague</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Integrations</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Colleague integrations leverage shared Ethos patterns</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Colleague</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Reports</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Colleague reporting typically simpler institutional scope</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Colleague</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Degree Works</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Degree Works not available for Colleague</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
